--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3379.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3379.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.259493702818506</v>
+        <v>4.830990791320801</v>
       </c>
       <c r="B1">
-        <v>2.566840275655859</v>
+        <v>3.577049732208252</v>
       </c>
       <c r="C1">
-        <v>3.814971168807631</v>
+        <v>1.932513952255249</v>
       </c>
       <c r="D1">
-        <v>3.935592882782759</v>
+        <v>1.539733648300171</v>
       </c>
       <c r="E1">
-        <v>1.148651228941194</v>
+        <v>1.416112661361694</v>
       </c>
     </row>
   </sheetData>
